--- a/xlsx/本田飞度_intext.xlsx
+++ b/xlsx/本田飞度_intext.xlsx
@@ -29,13 +29,13 @@
     <t>Honda</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_本田飞度</t>
+    <t>政策_政策_混合动力车辆_本田飞度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E7%A8%AE%E9%A1%9E</t>
   </si>
   <si>
-    <t>汽車種類</t>
+    <t>汽车种类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%80%E8%83%8C%E8%BD%A6</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%B0%8F%E5%9E%8B%E8%BB%8A</t>
   </si>
   <si>
-    <t>亞小型車</t>
+    <t>亚小型车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%97%E4%BA%9E</t>
   </si>
   <si>
-    <t>東南亞</t>
+    <t>东南亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BF%E5%B7%9E%E6%9C%AC%E7%94%B0%E6%B1%BD%E8%BD%A6%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%8B%95%E5%8A%9B%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>混合動力車輛</t>
+    <t>混合动力车辆</t>
   </si>
 </sst>
 </file>
